--- a/statistiche/counterfactuals_RandomForest_actualregular_predDeviant.xlsx
+++ b/statistiche/counterfactuals_RandomForest_actualregular_predDeviant.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Release A</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ER Triage</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ER Registration</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Release A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ER Triage</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,28 +1023,28 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,13 +1157,13 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1306,34 +1306,34 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1354,14 +1354,14 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>1</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
@@ -1425,10 +1425,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>1</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1622,14 +1622,14 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
@@ -1638,22 +1638,22 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>1</v>
@@ -1693,7 +1693,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1702,37 +1702,37 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1756,14 +1756,14 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>1</v>
@@ -1772,22 +1772,22 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1836,22 +1836,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>1</v>
@@ -1906,22 +1906,22 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>1</v>
@@ -1961,31 +1961,31 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2024,14 +2024,14 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>1</v>
@@ -2040,22 +2040,22 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>1</v>
@@ -2080,9 +2080,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S24" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
@@ -2095,7 +2095,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -2104,22 +2104,22 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2158,38 +2158,38 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>13</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2" t="n">
         <v>1</v>
@@ -2214,9 +2214,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S26" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
@@ -2229,31 +2229,31 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2292,41 +2292,41 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>14</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>1</v>
@@ -2348,9 +2348,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S28" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
@@ -2363,46 +2363,46 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2426,41 +2426,41 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>JX</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>1</v>
@@ -2482,9 +2482,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S30" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2497,34 +2497,34 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2552,6 +2552,274 @@
         </is>
       </c>
       <c r="T31" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>JX</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>JX</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S34" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>

--- a/statistiche/counterfactuals_RandomForest_actualregular_predDeviant.xlsx
+++ b/statistiche/counterfactuals_RandomForest_actualregular_predDeviant.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ER Triage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Release B</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>LacticAcid</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ER Sepsis Triage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ER Registration</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Release A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Release A</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ER Triage</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -910,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
@@ -1008,9 +1008,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
@@ -1023,10 +1023,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1038,22 +1038,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
@@ -1142,9 +1142,9 @@
           <t>regular</t>
         </is>
       </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
@@ -1157,10 +1157,10 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1230,31 +1230,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
         <v>0</v>
@@ -1294,43 +1294,43 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
@@ -1431,28 +1431,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -1501,31 +1501,31 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>1</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1565,43 +1565,43 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -1635,31 +1635,31 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>1</v>
@@ -1668,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1699,31 +1699,31 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1732,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -1769,31 +1769,31 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>1</v>
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1833,31 +1833,31 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -1866,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -1903,31 +1903,31 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1964,34 +1964,34 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -2000,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -2037,31 +2037,31 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>1</v>
@@ -2070,19 +2070,19 @@
         <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
@@ -2098,35 +2098,35 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -2168,34 +2168,34 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>1</v>
@@ -2204,19 +2204,19 @@
         <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
@@ -2232,34 +2232,34 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -2302,34 +2302,34 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>1</v>
@@ -2338,19 +2338,19 @@
         <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
@@ -2366,34 +2366,34 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>JX</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -2436,34 +2436,34 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>1</v>
@@ -2475,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2497,37 +2497,37 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2552,274 +2552,6 @@
         </is>
       </c>
       <c r="T31" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>JX</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>JX</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S34" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>
